--- a/figures_tables/ADCC/ADCC_P.xlsx
+++ b/figures_tables/ADCC/ADCC_P.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,10 +386,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3383</v>
+        <v>0.4196</v>
       </c>
       <c r="C2">
-        <v>0.6766</v>
+        <v>0.8391999999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0473</v>
+        <v>0.2512</v>
       </c>
       <c r="C3">
-        <v>0.0946</v>
+        <v>0.5023</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.2051</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4103</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -440,10 +440,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0373</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0747</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6-week interval / 4-week interval</t>
+          <t>8-week interval / Prime only</t>
         </is>
       </c>
       <c r="B12">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6-week interval / 4-week interval</t>
+          <t>8-week interval / Prime only</t>
         </is>
       </c>
       <c r="B13">
@@ -598,14 +598,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6-week interval / 3-week interval</t>
+          <t>6-week interval / 4-week interval</t>
         </is>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.2047</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.4094</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -616,14 +616,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6-week interval / 3-week interval</t>
+          <t>6-week interval / 4-week interval</t>
         </is>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0523</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1046</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -634,14 +634,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6-week interval / 2-week interval</t>
+          <t>6-week interval / 3-week interval</t>
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -652,14 +652,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6-week interval / 2-week interval</t>
+          <t>6-week interval / 3-week interval</t>
         </is>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6-week interval / 1-week interval</t>
+          <t>6-week interval / 2-week interval</t>
         </is>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -688,14 +688,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6-week interval / 1-week interval</t>
+          <t>6-week interval / 2-week interval</t>
         </is>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4-week interval / 3-week interval</t>
+          <t>6-week interval / 1-week interval</t>
         </is>
       </c>
       <c r="B20">
@@ -724,7 +724,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4-week interval / 3-week interval</t>
+          <t>6-week interval / 1-week interval</t>
         </is>
       </c>
       <c r="B21">
@@ -742,7 +742,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4-week interval / 2-week interval</t>
+          <t>6-week interval / Prime only</t>
         </is>
       </c>
       <c r="B22">
@@ -760,7 +760,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4-week interval / 2-week interval</t>
+          <t>6-week interval / Prime only</t>
         </is>
       </c>
       <c r="B23">
@@ -778,14 +778,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4-week interval / 1-week interval</t>
+          <t>4-week interval / 3-week interval</t>
         </is>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -796,14 +796,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4-week interval / 1-week interval</t>
+          <t>4-week interval / 3-week interval</t>
         </is>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.0201</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.0402</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -814,14 +814,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3-week interval / 2-week interval</t>
+          <t>4-week interval / 2-week interval</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.9999</v>
+        <v>0.0016</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.0032</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3-week interval / 2-week interval</t>
+          <t>4-week interval / 2-week interval</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.9546</v>
+        <v>0.0018</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.0036</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3-week interval / 1-week interval</t>
+          <t>4-week interval / 1-week interval</t>
         </is>
       </c>
       <c r="B28">
@@ -868,7 +868,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3-week interval / 1-week interval</t>
+          <t>4-week interval / 1-week interval</t>
         </is>
       </c>
       <c r="B29">
@@ -886,7 +886,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2-week interval / 1-week interval</t>
+          <t>4-week interval / Prime only</t>
         </is>
       </c>
       <c r="B30">
@@ -904,16 +904,232 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>4-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3-week interval / 2-week interval</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0.7779</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3-week interval / 2-week interval</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.3574</v>
+      </c>
+      <c r="C33">
+        <v>0.7148</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3-week interval / 1-week interval</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.0003</v>
+      </c>
+      <c r="C34">
+        <v>0.0005</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3-week interval / 1-week interval</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2-week interval / 1-week interval</t>
         </is>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2-week interval / 1-week interval</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.0001</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.0998</v>
+      </c>
+      <c r="C42">
+        <v>0.1996</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1-week interval / Prime only</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.7644</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>10</t>
         </is>
